--- a/Testisuunnitelma ja testitapaus Viestittely.xlsx
+++ b/Testisuunnitelma ja testitapaus Viestittely.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26807"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduamiedu-my.sharepoint.com/personal/kerttuli_ratilainen_taitotalo_fi/Documents/Documents/Testaus/testaus08032022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{3922C2D7-BBC3-4743-96C9-C383721663FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F53E152-9F6A-4CB6-9389-03AE3FB727B8}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="8_{3922C2D7-BBC3-4743-96C9-C383721663FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EEA24C8-550F-4218-818E-126D60A2F3E1}"/>
   <bookViews>
     <workbookView xWindow="37470" yWindow="1095" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <t>1. TESTAUKSET TAVOITTEET</t>
   </si>
@@ -44,7 +44,7 @@
     <t>ohjelma toimii suomeksi</t>
   </si>
   <si>
-    <t>ohjelma toimii toivotulla tavalla ja tavoitteiden mukaan</t>
+    <t>ohjelma toimii toivotulla tavalla ja tavoitteiden mukaan, kts kohta 9</t>
   </si>
   <si>
     <t>vain oikeat syötteet kelpaavat ohjelmalle (moduli-testaus)</t>
@@ -80,12 +80,27 @@
     <t>3. TESTI MENETELMÄT</t>
   </si>
   <si>
-    <t>Pythonissa ajaminen</t>
+    <t>Pythonissa ajaminen: funktio, py-tiedosto (yksikkötestau) ja py-tiedostojen yhteistoiminta (integraatio- ja järjestelmätestaus)</t>
   </si>
   <si>
     <t>Oikean ja virheellisen data syöttäminen</t>
   </si>
   <si>
+    <t>Print komennot ja logi-tiedosto</t>
+  </si>
+  <si>
+    <t>Regressiotestaus yksikkö- ja integraatio testien ohessa</t>
+  </si>
+  <si>
+    <t>Testejä ei automatisoida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suoritykykytestaus yksikkö- ja integraatio testien ohessa </t>
+  </si>
+  <si>
+    <t>- ei kuormitus, skaalautuvuus, kuormanjako- ja tasapaino ongelmia, koska pieni yhden käyttäjän sovellus yhdellä koneella</t>
+  </si>
+  <si>
     <t>4. TESTI RESURSSIT</t>
   </si>
   <si>
@@ -107,10 +122,10 @@
     <t>5. TESTIN VASTUUT JA ROOLIT</t>
   </si>
   <si>
-    <t>Ville tiedostojen muodostaminen ja vastaanotto</t>
-  </si>
-  <si>
-    <t>Simopekka käyttöliittymän toiminen</t>
+    <t>Ville tiedostojen muodostamisen ja vastaanoton testauksen suunnittelu ja testi</t>
+  </si>
+  <si>
+    <t>Simopekka käyttöliittymän ja socket IP-viestin välityksen testauksen suunnittelu ja testi</t>
   </si>
   <si>
     <t>Ville ja Simopekka käyttöliittymän ja tiedostojen käytön yhteistoiminta</t>
@@ -122,7 +137,13 @@
     <t>Viikko 33 aikaa testaukselle, kehittämiselle ja korjaamiselle, tarvittaessa toinen viikko 34</t>
   </si>
   <si>
-    <t>6. POISTUMISSUUNNITELMA ?</t>
+    <t>6. POISTUMISSUUNNITELMA</t>
+  </si>
+  <si>
+    <t>testaus päättyy riittävän onnistuneesti, esim toteutuu kohta 9.2. Melko tärkeitä testejä</t>
+  </si>
+  <si>
+    <t>viimeistään 23.8.2023</t>
   </si>
   <si>
     <t>7. RISKIT</t>
@@ -140,7 +161,16 @@
     <t>salasana vain python koodissa, joten toimialueen salasanat eivät ole vaarassa</t>
   </si>
   <si>
-    <t>8. SEURANTA JA RAPORTOINTI ?</t>
+    <t>eri syistä johtuvat viiveet</t>
+  </si>
+  <si>
+    <t>8. SEURANTA JA RAPORTOINTI</t>
+  </si>
+  <si>
+    <t>Aamu- ja iltapäiväpalavereissä seurataan testien etenemistä</t>
+  </si>
+  <si>
+    <t>Viikko palaverissä seurataan ja raportoidaan testien etenemistä</t>
   </si>
   <si>
     <t>9. PRIORITEETIT</t>
@@ -164,31 +194,46 @@
     <t>käyttäjä voi sulke ohjelman</t>
   </si>
   <si>
+    <t>viestin ja avaimien välitys toimii myös USP-tikulla</t>
+  </si>
+  <si>
     <t>9.2. Melko tärkeitä testejä</t>
   </si>
   <si>
-    <t>"lähetä-sivulla" valittu kansio on olemassa, viesti-kentässä lukee viesti</t>
+    <t>"lähetä-sivulla" valittu kansio on olemassa, viesti-kentässä lukee viesti, viesti sisältää vain sallittuja merkkejä (nyt ASCII ja åäö)</t>
   </si>
   <si>
     <t>"vastaanota-sivulla" valittu kansio on olemassa</t>
   </si>
   <si>
-    <t>9.3. Hyvä olisi toimia</t>
-  </si>
-  <si>
-    <t>"lähetä-sivulla" IP-numeroon lähetys toimisi</t>
-  </si>
-  <si>
-    <t>"vastaanota-sivulla" IP-numeron kuuntelu ja vastaanotto toimisi</t>
-  </si>
-  <si>
-    <t>9.4. Tuskin testataan</t>
+    <t>9.3. Hyvä olisi toimia testejä</t>
+  </si>
+  <si>
+    <t>"lähetä-sivulla" IP-numeroon lähetys toimii</t>
+  </si>
+  <si>
+    <t>"vastaanota-sivulla" IP-numeron kuuntelu ja vastaanotto toimii</t>
+  </si>
+  <si>
+    <t>9.4. Jatkokehitys testejä</t>
+  </si>
+  <si>
+    <t>IP-viestin lähettäminen toiselle toimialueelle</t>
   </si>
   <si>
     <t>"kopio viesti" toiminto kaikkineen</t>
   </si>
   <si>
-    <t>II VAATIMUSMÄÄRITTELY</t>
+    <t>IP-viestien vastaanoton (socket server) pyöriminen taustalla</t>
+  </si>
+  <si>
+    <t>monen IP-viestin vastaanotto (socket server), todella hakala, koska nyt Viestittely-ohjelma purkaa viimeisimmän saapuneen viestin</t>
+  </si>
+  <si>
+    <t>UTF-8 -merkistön salliminen viestissä</t>
+  </si>
+  <si>
+    <t>message-tiedostossa olevien indeksien arvoja muutetaan satunnaisesti. Locationkeyfilessa on jokaiselle kirjaimelle oma satunnainen luku.</t>
   </si>
   <si>
     <t xml:space="preserve">Testitapauksen tunniste </t>
@@ -457,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -490,79 +535,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -845,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA70DFF0-99B5-4726-8764-2D4D34D056B4}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -933,179 +979,254 @@
         <v>15</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>16</v>
+      <c r="B23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
+      <c r="B25" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="B28" t="s">
+      <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>22</v>
+      <c r="B31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>26</v>
+      <c r="B37" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="B45" t="s">
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="46" spans="1:2">
-      <c r="B46" t="s">
-        <v>31</v>
+      <c r="A46" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="B47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="B56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="C58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="C59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="C60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="C61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="B62" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="C63" t="s">
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="C64" t="s">
+    <row r="61" spans="1:2">
+      <c r="B61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="C66" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
       <c r="C67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="B68" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="68" spans="2:3">
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
       <c r="C69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="C80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1127,50 +1248,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+        <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="19"/>
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3"/>
@@ -1186,12 +1307,12 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="31"/>
+      <c r="A4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="16"/>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1216,29 +1337,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="31"/>
+      <c r="A6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="28"/>
+        <v>79</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4"/>
@@ -1255,98 +1376,98 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+        <v>84</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5"/>
       <c r="F8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+        <v>84</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="3"/>
       <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3"/>
       <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3"/>
       <c r="F12" s="6">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3"/>
@@ -1363,10 +1484,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1379,153 +1500,190 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="A16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1">
       <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="B18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="6">
         <v>2</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="B19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="B20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6">
         <v>4</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="6"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="6"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -1542,43 +1700,6 @@
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1601,40 +1722,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="D1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="19"/>
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
+      <c r="D2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3"/>
@@ -1650,10 +1771,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="31"/>
+      <c r="A4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="16"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1678,23 +1799,23 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="31"/>
+      <c r="A6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="D6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4"/>
@@ -1711,92 +1832,92 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+        <v>84</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5"/>
       <c r="F8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+        <v>84</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="3"/>
       <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3"/>
       <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3"/>
       <c r="F12" s="6">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3"/>
@@ -1813,7 +1934,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3"/>
@@ -1827,129 +1948,166 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="A16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1">
       <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="6">
         <v>2</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6">
         <v>4</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="6"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="6"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
@@ -1966,43 +2124,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2025,50 +2146,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="19"/>
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3"/>
@@ -2084,10 +2205,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="31"/>
+      <c r="A4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="16"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2112,23 +2233,23 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="31"/>
+      <c r="A6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="D6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4"/>
@@ -2145,92 +2266,92 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+        <v>84</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="5"/>
       <c r="F8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+        <v>84</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="3"/>
       <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="3"/>
       <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="3"/>
       <c r="F12" s="6">
         <v>4</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3"/>
@@ -2247,7 +2368,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3"/>
@@ -2261,129 +2382,166 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="A16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1">
       <c r="A18" s="6">
         <v>1</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="6">
         <v>2</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6">
         <v>4</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="6"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="6"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I20:K20"/>
@@ -2400,43 +2558,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2445,6 +2566,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100925D6C5FB3BFAE449B3BC7B1C1B561A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="abef39da647c2b06850d8f11ba9f51b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0945feeb-25b8-48de-bbf8-9ae0dd89fbc4" xmlns:ns3="3f81c90d-fa02-4e16-bd78-8cfffdde2133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="736c49d02f898d7fd68faf87a106a8ea" ns2:_="" ns3:_="">
     <xsd:import namespace="0945feeb-25b8-48de-bbf8-9ae0dd89fbc4"/>
@@ -2661,15 +2791,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2682,11 +2803,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F37BD595-5C01-47F9-B660-FB08DC8765BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12FDBA82-7B11-4E77-84D7-0D9CC15588F3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12FDBA82-7B11-4E77-84D7-0D9CC15588F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F37BD595-5C01-47F9-B660-FB08DC8765BA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
